--- a/Metadata_Catalog_Format.xlsx
+++ b/Metadata_Catalog_Format.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="103">
   <si>
     <t>Field Name</t>
   </si>
@@ -108,6 +108,231 @@
   </si>
   <si>
     <t>Ministry of Labor</t>
+  </si>
+  <si>
+    <t>gender</t>
+  </si>
+  <si>
+    <t>Resident's gender</t>
+  </si>
+  <si>
+    <t>date_of_birth</t>
+  </si>
+  <si>
+    <t>Resident's birthdate</t>
+  </si>
+  <si>
+    <t>place_of_birth</t>
+  </si>
+  <si>
+    <t>Place of birth</t>
+  </si>
+  <si>
+    <t>passport_number</t>
+  </si>
+  <si>
+    <t>Passport number of resident</t>
+  </si>
+  <si>
+    <t>Ministry of Foreign Affairs</t>
+  </si>
+  <si>
+    <t>passport_expiry</t>
+  </si>
+  <si>
+    <t>Expiry date of passport</t>
+  </si>
+  <si>
+    <t>visa_type</t>
+  </si>
+  <si>
+    <t>Type of visa held by resident</t>
+  </si>
+  <si>
+    <t>residence_city</t>
+  </si>
+  <si>
+    <t>Current city of residence</t>
+  </si>
+  <si>
+    <t>Ministry of Municipalities</t>
+  </si>
+  <si>
+    <t>residence_district</t>
+  </si>
+  <si>
+    <t>Current district of residence</t>
+  </si>
+  <si>
+    <t>building_number</t>
+  </si>
+  <si>
+    <t>Building number registered on national address</t>
+  </si>
+  <si>
+    <t>Saudi Post</t>
+  </si>
+  <si>
+    <t>street_name</t>
+  </si>
+  <si>
+    <t>Street name for residents</t>
+  </si>
+  <si>
+    <t>postal_code</t>
+  </si>
+  <si>
+    <t>National postal code</t>
+  </si>
+  <si>
+    <t>mobile_number</t>
+  </si>
+  <si>
+    <t>Resident's primary mobile number</t>
+  </si>
+  <si>
+    <t>CITC</t>
+  </si>
+  <si>
+    <t>email_address</t>
+  </si>
+  <si>
+    <t>Resident's email address</t>
+  </si>
+  <si>
+    <t>bank_account_number</t>
+  </si>
+  <si>
+    <t>Primary bank account number</t>
+  </si>
+  <si>
+    <t>SAMA</t>
+  </si>
+  <si>
+    <t>iban_number</t>
+  </si>
+  <si>
+    <t>IBAN for salary transfer</t>
+  </si>
+  <si>
+    <t>salary_amount</t>
+  </si>
+  <si>
+    <t>Float</t>
+  </si>
+  <si>
+    <t>Resident's monthly salary</t>
+  </si>
+  <si>
+    <t>salary_currency</t>
+  </si>
+  <si>
+    <t>Currency of salary</t>
+  </si>
+  <si>
+    <t>job_title</t>
+  </si>
+  <si>
+    <t>Official job title</t>
+  </si>
+  <si>
+    <t>education_level</t>
+  </si>
+  <si>
+    <t>Highest education attained</t>
+  </si>
+  <si>
+    <t>Ministry of Education</t>
+  </si>
+  <si>
+    <t>degree_name</t>
+  </si>
+  <si>
+    <t>Name of the last academic degree</t>
+  </si>
+  <si>
+    <t>university_attended</t>
+  </si>
+  <si>
+    <t>graduation_year</t>
+  </si>
+  <si>
+    <t>Integer</t>
+  </si>
+  <si>
+    <t>University from which degree was earned</t>
+  </si>
+  <si>
+    <t>Year of graduation</t>
+  </si>
+  <si>
+    <t>health_insurance_id</t>
+  </si>
+  <si>
+    <t>ID of registered health insurance</t>
+  </si>
+  <si>
+    <t>CCHI</t>
+  </si>
+  <si>
+    <t>insurance_provider_name</t>
+  </si>
+  <si>
+    <t>Health insurance provider</t>
+  </si>
+  <si>
+    <t>blood_type</t>
+  </si>
+  <si>
+    <t>Resident's blood type</t>
+  </si>
+  <si>
+    <t>Ministry of Health</t>
+  </si>
+  <si>
+    <t>emergency_contact_name</t>
+  </si>
+  <si>
+    <t>Name of emergency contact</t>
+  </si>
+  <si>
+    <t>vaccination_status</t>
+  </si>
+  <si>
+    <t>COVID-19 or other vaccination completion</t>
+  </si>
+  <si>
+    <t>emergency_contact_number</t>
+  </si>
+  <si>
+    <t>Phone number of emergency contact</t>
+  </si>
+  <si>
+    <t>fingerprint_id</t>
+  </si>
+  <si>
+    <t>Biometric ID</t>
+  </si>
+  <si>
+    <t>data_last_updated</t>
+  </si>
+  <si>
+    <t>Last updated timestamp</t>
+  </si>
+  <si>
+    <t>martial_status</t>
+  </si>
+  <si>
+    <t>Resident's martial status</t>
+  </si>
+  <si>
+    <t>Ministry of Civil Affairs</t>
+  </si>
+  <si>
+    <t>number_of_dependents</t>
+  </si>
+  <si>
+    <t>Number of dependents under the resident</t>
   </si>
 </sst>
 </file>
@@ -168,6 +393,21 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <font>
         <b/>
         <i val="0"/>
@@ -185,21 +425,6 @@
       </font>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -214,14 +439,14 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E9" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0">
-  <autoFilter ref="A1:E9"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E41" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
+  <autoFilter ref="A1:E41"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="Field Name" dataDxfId="6"/>
-    <tableColumn id="2" name="Data Type" dataDxfId="5"/>
-    <tableColumn id="3" name="Description" dataDxfId="4"/>
-    <tableColumn id="4" name="Data Owner" dataDxfId="3"/>
-    <tableColumn id="5" name="Sensitivity Level" dataDxfId="2"/>
+    <tableColumn id="1" name="Field Name" dataDxfId="4"/>
+    <tableColumn id="2" name="Data Type" dataDxfId="3"/>
+    <tableColumn id="3" name="Description" dataDxfId="2"/>
+    <tableColumn id="4" name="Data Owner" dataDxfId="1"/>
+    <tableColumn id="5" name="Sensitivity Level" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -490,18 +715,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.21875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="39.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -655,6 +880,550 @@
         <v>26</v>
       </c>
       <c r="E9" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A31" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A33" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A34" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A35" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A36" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A37" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A38" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A39" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A40" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A41" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E41" s="1" t="s">
         <v>17</v>
       </c>
     </row>
